--- a/data/trans_camb/P1414-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1414-Provincia-trans_camb.xlsx
@@ -612,7 +612,7 @@
         <v>0.3626216498062552</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-0.1183506075514167</v>
+        <v>-0.1183506075514166</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>1.284056683816243</v>
@@ -624,7 +624,7 @@
         <v>0.8246481200955394</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.5488375577292138</v>
+        <v>0.5488375577292142</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.5974255099303178</v>
+        <v>-0.6448420205084255</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.312618820283667</v>
+        <v>-1.243301520825067</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.811025321404297</v>
+        <v>-1.540518822338817</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.504052719159795</v>
+        <v>-1.574757367218484</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.6698119531216759</v>
+        <v>-0.7919442428687898</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.8189665893032159</v>
+        <v>-0.9292938723616639</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.082482673160341</v>
+        <v>1.809160640245812</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4272830048452266</v>
+        <v>0.4252372836825431</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.116486111827649</v>
+        <v>4.180080266113669</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.401442057459273</v>
+        <v>3.387002178042844</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.518156992815643</v>
+        <v>2.454598955179414</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.765307200883128</v>
+        <v>1.770021125188426</v>
       </c>
     </row>
     <row r="7">
@@ -690,7 +690,7 @@
         <v>1.106348643678888</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.3610844366657104</v>
+        <v>-0.3610844366657103</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.4487326607687159</v>
@@ -702,7 +702,7 @@
         <v>0.5224813507377826</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3477330288035618</v>
+        <v>0.347733028803562</v>
       </c>
     </row>
     <row r="8">
@@ -715,16 +715,16 @@
       <c r="C8" s="6" t="inlineStr"/>
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="n">
-        <v>-0.459827188378971</v>
+        <v>-0.4547929732046667</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3424734683908097</v>
+        <v>-0.3707517186600795</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3557814254563558</v>
+        <v>-0.4238728183959617</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3563524777735313</v>
+        <v>-0.3690400166346973</v>
       </c>
     </row>
     <row r="9">
@@ -737,16 +737,16 @@
       <c r="C9" s="6" t="inlineStr"/>
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="n">
-        <v>2.573394762216723</v>
+        <v>2.708720914513173</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.37840839144811</v>
+        <v>2.223235245404929</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.728641558009535</v>
+        <v>2.635059916795712</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.082522500898353</v>
+        <v>2.253776130559232</v>
       </c>
     </row>
     <row r="10">
@@ -787,22 +787,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.416222311321</v>
+        <v>-0.4199113920331851</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.023504097025855</v>
+        <v>-0.9507634489206289</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.619392599578695</v>
+        <v>-1.458978654155599</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.8887747751152562</v>
+        <v>-0.9958389432534739</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.9219915516937732</v>
+        <v>-0.8415378706346357</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.4774442335504632</v>
+        <v>-0.5578726278974082</v>
       </c>
     </row>
     <row r="12">
@@ -813,22 +813,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6516970141047868</v>
+        <v>0.646580473765321</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.521136977667144</v>
+        <v>2.469497479504811</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.133579680267869</v>
+        <v>3.07590726010024</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.379242755006402</v>
+        <v>1.29839315163395</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.476312197512511</v>
+        <v>1.52387231539469</v>
       </c>
     </row>
     <row r="13">
@@ -867,16 +867,16 @@
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>-0.489905946461792</v>
+        <v>-0.4405031162101549</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2647417367805076</v>
+        <v>-0.3015411481176105</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.503410069060347</v>
+        <v>-0.4675126321392202</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2882065862795704</v>
+        <v>-0.3153513969902287</v>
       </c>
     </row>
     <row r="15">
@@ -889,16 +889,16 @@
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>1.771741102278848</v>
+        <v>1.624611671956575</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.23391100807247</v>
+        <v>1.983209520328746</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.688786865917488</v>
+        <v>1.837484375075131</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.840715071694047</v>
+        <v>1.879733299726979</v>
       </c>
     </row>
     <row r="16">
@@ -922,13 +922,13 @@
         <v>-0.03069844495884773</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.0452802691522208</v>
+        <v>0.04528026915222045</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>-0.01462137963382706</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.1782553914454249</v>
+        <v>0.1782553914454248</v>
       </c>
     </row>
     <row r="17">
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.753327883710321</v>
+        <v>-2.019587233724202</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.774599595041883</v>
+        <v>-1.661987553870239</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.013332514048677</v>
+        <v>-0.8806301591501645</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.7389463490039631</v>
+        <v>-0.7270439934083429</v>
       </c>
     </row>
     <row r="18">
@@ -964,19 +964,19 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>1.152091192974734</v>
+        <v>1.133415987237819</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.774261540455096</v>
+        <v>1.508982900176204</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.475149977098068</v>
+        <v>1.517670523636814</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7776737190870573</v>
+        <v>0.849630393404104</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9544388660383371</v>
+        <v>1.014137011986773</v>
       </c>
     </row>
     <row r="19">
@@ -996,13 +996,13 @@
         <v>-0.02111015333145838</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.03113751937514965</v>
+        <v>0.03113751937514941</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.01960867533853786</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2390576119171888</v>
+        <v>0.2390576119171886</v>
       </c>
     </row>
     <row r="20">
@@ -1015,16 +1015,16 @@
       <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="n">
-        <v>-0.8298047026343511</v>
+        <v>-0.8453647643936998</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6923008878299222</v>
+        <v>-0.7062209484701077</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8110723614566191</v>
+        <v>-0.8157066237806504</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6244734751454183</v>
+        <v>-0.6050880413044812</v>
       </c>
     </row>
     <row r="21">
@@ -1037,16 +1037,16 @@
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="n">
-        <v>3.722859844091767</v>
+        <v>2.303703210493466</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.935727534211747</v>
+        <v>3.104752395420931</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.657237694629345</v>
+        <v>3.396948781267212</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.005859287880478</v>
+        <v>3.458444022000748</v>
       </c>
     </row>
     <row r="22">
@@ -1070,13 +1070,13 @@
         <v>-0.5270352825936502</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-0.6267180339986581</v>
+        <v>-0.6267180339986578</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>-0.2875108051567307</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.05102544828690034</v>
+        <v>0.05102544828689999</v>
       </c>
     </row>
     <row r="23">
@@ -1087,22 +1087,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.925420873109517</v>
+        <v>-0.9641013237898902</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.3108686616504939</v>
+        <v>-0.3093182676218359</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.878911706652533</v>
+        <v>-2.952861976796939</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.578929360978307</v>
+        <v>-2.773314687433026</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.365167937566741</v>
+        <v>-1.450440247067399</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.210996734528305</v>
+        <v>-1.152069698312576</v>
       </c>
     </row>
     <row r="24">
@@ -1113,22 +1113,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5290564611940184</v>
+        <v>0.5256697842735498</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.83241351002294</v>
+        <v>2.955422233238713</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.644696060894012</v>
+        <v>1.778208624126141</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.247180252734464</v>
+        <v>1.043154879147617</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.031525253675542</v>
+        <v>1.030667762734446</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.240598091615828</v>
+        <v>1.210260090518982</v>
       </c>
     </row>
     <row r="25">
@@ -1148,13 +1148,13 @@
         <v>-0.1877792572284618</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>-0.2232955758422838</v>
+        <v>-0.2232955758422837</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.1818568598118436</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03227470978312927</v>
+        <v>0.03227470978312905</v>
       </c>
     </row>
     <row r="26">
@@ -1167,16 +1167,16 @@
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>-0.7323027288808672</v>
+        <v>-0.7529916395535252</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.6297462995788106</v>
+        <v>-0.6473530266926678</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6572148237693753</v>
+        <v>-0.6764555292046689</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5226523717172384</v>
+        <v>-0.5187302043002759</v>
       </c>
     </row>
     <row r="27">
@@ -1189,16 +1189,16 @@
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>0.996621247127491</v>
+        <v>1.206963183870509</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.8319699538718578</v>
+        <v>0.7546130857738834</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.217501802663451</v>
+        <v>1.107281212503028</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.370045615490624</v>
+        <v>1.520448858846785</v>
       </c>
     </row>
     <row r="28">
@@ -1222,7 +1222,7 @@
         <v>3.062803963694543</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2.218139800421964</v>
+        <v>2.218139800421965</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>2.009528814091905</v>
@@ -1245,16 +1245,16 @@
         <v>0</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.87979562495761</v>
+        <v>-0.9014305798315457</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.080618875483809</v>
+        <v>-1.165932877670986</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.05968540863625857</v>
+        <v>-0.09169316922654622</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.3936946157910902</v>
+        <v>-0.5753604829708739</v>
       </c>
     </row>
     <row r="30">
@@ -1265,22 +1265,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.225814978615117</v>
+        <v>3.182582547394371</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.482463821611073</v>
+        <v>1.420419058295531</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.365054286470786</v>
+        <v>7.410399016899357</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.039088824576724</v>
+        <v>4.932995172384707</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.355805875545953</v>
+        <v>4.129882485812426</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.778438016309201</v>
+        <v>2.815225746913284</v>
       </c>
     </row>
     <row r="31">
@@ -1304,13 +1304,13 @@
         <v>0.9992861452580966</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>0.7237016789456812</v>
+        <v>0.7237016789456814</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>1.290459005272487</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.8555859686610238</v>
+        <v>0.855585968661024</v>
       </c>
     </row>
     <row r="32">
@@ -1323,16 +1323,16 @@
       <c r="C32" s="6" t="inlineStr"/>
       <c r="D32" s="6" t="inlineStr"/>
       <c r="E32" s="6" t="n">
-        <v>-0.290252530305709</v>
+        <v>-0.263467119381788</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2677912392284214</v>
+        <v>-0.2686780566640052</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1672288898094806</v>
+        <v>-0.2101367476462794</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1871234651313551</v>
+        <v>-0.2533451559779915</v>
       </c>
     </row>
     <row r="33">
@@ -1345,16 +1345,16 @@
       <c r="C33" s="6" t="inlineStr"/>
       <c r="D33" s="6" t="inlineStr"/>
       <c r="E33" s="6" t="n">
-        <v>6.464324773935751</v>
+        <v>4.88265685902459</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>3.918148652417144</v>
+        <v>3.652786540258644</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>6.132906210546956</v>
+        <v>5.480259104262055</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>4.229115883217419</v>
+        <v>5.007991366002615</v>
       </c>
     </row>
     <row r="34">
@@ -1378,7 +1378,7 @@
         <v>1.239248038668904</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>2.291992020685129</v>
+        <v>2.291992020685128</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>0.6372308873065013</v>
@@ -1396,19 +1396,19 @@
       </c>
       <c r="C35" s="5" t="inlineStr"/>
       <c r="D35" s="5" t="n">
-        <v>0.1697703203423799</v>
+        <v>0.1641799158518929</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.6747515119941748</v>
+        <v>-0.6877245685524206</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>0.1770778087401988</v>
+        <v>0.4316725697618276</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.3475645930342363</v>
+        <v>-0.3384998777012677</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>0.3511930795983871</v>
+        <v>0.3203152521293662</v>
       </c>
     </row>
     <row r="36">
@@ -1420,19 +1420,19 @@
       </c>
       <c r="C36" s="5" t="inlineStr"/>
       <c r="D36" s="5" t="n">
-        <v>1.990009280536056</v>
+        <v>1.888774447901101</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.539916849575595</v>
+        <v>3.571422225380808</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4.202000377001109</v>
+        <v>4.333569289988309</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.926962548829966</v>
+        <v>1.838878852395428</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2.509834830162794</v>
+        <v>2.498719554914947</v>
       </c>
     </row>
     <row r="37">
@@ -1452,7 +1452,7 @@
         <v>1.142960182882362</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>2.113907415936685</v>
+        <v>2.113907415936684</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>1.166741884502087</v>
@@ -1470,15 +1470,17 @@
       </c>
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="inlineStr"/>
-      <c r="E38" s="6" t="inlineStr"/>
+      <c r="E38" s="6" t="n">
+        <v>-0.5350967178386193</v>
+      </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1548522110622006</v>
+        <v>-0.121404459274821</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.6407656314527991</v>
+        <v>-0.6237673170902668</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.09641075269488072</v>
+        <v>0.09132861682715694</v>
       </c>
     </row>
     <row r="39">
@@ -1492,11 +1494,13 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>10.5577807769162</v>
-      </c>
-      <c r="G39" s="6" t="inlineStr"/>
+        <v>11.96086924502126</v>
+      </c>
+      <c r="G39" s="6" t="n">
+        <v>10.88685982999005</v>
+      </c>
       <c r="H39" s="6" t="n">
-        <v>14.03865338970918</v>
+        <v>13.99779642629802</v>
       </c>
     </row>
     <row r="40">
@@ -1514,19 +1518,19 @@
         <v>-0.1324393321592974</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>0.3984996723413475</v>
+        <v>0.3984996723413474</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>0.3277847007160751</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>3.256754270136375</v>
+        <v>3.256754270136374</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>0.1052170543874728</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>1.882218419908025</v>
+        <v>1.882218419908024</v>
       </c>
     </row>
     <row r="41">
@@ -1537,22 +1541,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.7645103007273336</v>
+        <v>-0.7540540520264604</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.333587312371071</v>
+        <v>-0.3271607798643367</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.114951431146191</v>
+        <v>-1.150202839384419</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1.64434709115225</v>
+        <v>1.600661404678643</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.7122314881662239</v>
+        <v>-0.6391571108044207</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.9040029271888671</v>
+        <v>0.9769947940726603</v>
       </c>
     </row>
     <row r="42">
@@ -1563,22 +1567,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.3895880395783677</v>
+        <v>0.4114449803105532</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.213700242006122</v>
+        <v>1.22561384618771</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.745953644606997</v>
+        <v>1.726272724640563</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4.679570590772963</v>
+        <v>4.995050657247031</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.8419647943120377</v>
+        <v>0.8643480772111649</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>2.802829988153532</v>
+        <v>2.789489395429675</v>
       </c>
     </row>
     <row r="43">
@@ -1592,13 +1596,13 @@
         <v>-0.4214182603842542</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>1.268014840786078</v>
+        <v>1.268014840786077</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>0.2279613234857806</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>2.264944068671861</v>
+        <v>2.26494406867186</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1183613237646864</v>
@@ -1615,20 +1619,18 @@
         </is>
       </c>
       <c r="C44" s="6" t="inlineStr"/>
-      <c r="D44" s="6" t="n">
-        <v>-0.8494286272358361</v>
-      </c>
+      <c r="D44" s="6" t="inlineStr"/>
       <c r="E44" s="6" t="n">
-        <v>-0.5628246376742468</v>
+        <v>-0.5636797384027018</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.6351271949907794</v>
+        <v>0.5430740541703436</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.584646510376585</v>
+        <v>-0.5118900184384708</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.5457243711710197</v>
+        <v>0.5423992294330706</v>
       </c>
     </row>
     <row r="45">
@@ -1641,16 +1643,16 @@
       <c r="C45" s="6" t="inlineStr"/>
       <c r="D45" s="6" t="inlineStr"/>
       <c r="E45" s="6" t="n">
-        <v>2.176951517140405</v>
+        <v>2.456336893479771</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>6.713926639217251</v>
+        <v>5.939351076169713</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.695938610621561</v>
+        <v>1.83827024741931</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>5.853133231688756</v>
+        <v>5.419089421762248</v>
       </c>
     </row>
     <row r="46">
@@ -1680,7 +1682,7 @@
         <v>1.286877860398794</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>0.8600435022139259</v>
+        <v>0.8600435022139273</v>
       </c>
     </row>
     <row r="47">
@@ -1691,22 +1693,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.1387419481989449</v>
+        <v>-0.1317900661060998</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.5574089607415683</v>
+        <v>-0.5949473913446228</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.2934285430625704</v>
+        <v>-0.3114753697994487</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.4097624634545395</v>
+        <v>-0.3343830079780601</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>0.1072426555215597</v>
+        <v>0.08998212868569257</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.2394562041055211</v>
+        <v>-0.2562855225367121</v>
       </c>
     </row>
     <row r="48">
@@ -1717,22 +1719,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.483234173533279</v>
+        <v>1.49550689563047</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.4944024227875491</v>
+        <v>0.5128225579791637</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>4.243356968394422</v>
+        <v>4.184172503835682</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>3.906630560957854</v>
+        <v>3.664545095738466</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>2.630957041598049</v>
+        <v>2.532658373047183</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1.99460597456333</v>
+        <v>1.932547463090002</v>
       </c>
     </row>
     <row r="49">
@@ -1758,7 +1760,7 @@
         <v>0.5357411276150286</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3580453824353467</v>
+        <v>0.3580453824353473</v>
       </c>
     </row>
     <row r="50">
@@ -1768,19 +1770,21 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C50" s="6" t="inlineStr"/>
+      <c r="C50" s="6" t="n">
+        <v>-0.6702646477216966</v>
+      </c>
       <c r="D50" s="6" t="inlineStr"/>
       <c r="E50" s="6" t="n">
-        <v>-0.0693395559650539</v>
+        <v>-0.07379679166433535</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.0784351929078661</v>
+        <v>-0.0705891140443138</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.0002001924691240609</v>
+        <v>0.02687234730922156</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.08427496055658666</v>
+        <v>-0.09923442271886485</v>
       </c>
     </row>
     <row r="51">
@@ -1793,16 +1797,16 @@
       <c r="C51" s="6" t="inlineStr"/>
       <c r="D51" s="6" t="inlineStr"/>
       <c r="E51" s="6" t="n">
-        <v>1.232964213489571</v>
+        <v>1.16968233094079</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>1.17302187483798</v>
+        <v>1.100327929916624</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>1.350900992173231</v>
+        <v>1.397912440099165</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.099648802650976</v>
+        <v>1.070653936959586</v>
       </c>
     </row>
     <row r="52">
@@ -1820,19 +1824,19 @@
         <v>0.1983820500958198</v>
       </c>
       <c r="D52" s="5" t="n">
-        <v>0.2034222385530498</v>
+        <v>0.2034222385530499</v>
       </c>
       <c r="E52" s="5" t="n">
         <v>0.9176881319671929</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>1.55850600913803</v>
+        <v>1.558506009138031</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>0.569894008089376</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>0.9085793287679926</v>
+        <v>0.9085793287679923</v>
       </c>
     </row>
     <row r="53">
@@ -1843,22 +1847,22 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.05834954668352518</v>
+        <v>-0.05138945114293429</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.04391672545244316</v>
+        <v>-0.05657902794569823</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>0.1082921180954096</v>
+        <v>0.1318758936140027</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>0.8368595243564255</v>
+        <v>0.8082638236517281</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>0.1602236451798091</v>
+        <v>0.1463292159021457</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>0.4955386066880871</v>
+        <v>0.4846456195766934</v>
       </c>
     </row>
     <row r="54">
@@ -1869,22 +1873,22 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.5120214462160534</v>
+        <v>0.5278626431463447</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>0.5124391396896131</v>
+        <v>0.4768577283985285</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1.784444134679152</v>
+        <v>1.754138931679895</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>2.343243827075674</v>
+        <v>2.292126114336051</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>1.046016347996021</v>
+        <v>1.024773190648652</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>1.290659810943854</v>
+        <v>1.298508690792248</v>
       </c>
     </row>
     <row r="55">
@@ -1898,19 +1902,19 @@
         <v>0.9206663448150989</v>
       </c>
       <c r="D55" s="6" t="n">
-        <v>0.9440572306430043</v>
+        <v>0.9440572306430047</v>
       </c>
       <c r="E55" s="6" t="n">
         <v>0.3514991995455759</v>
       </c>
       <c r="F55" s="6" t="n">
-        <v>0.5969496560064174</v>
+        <v>0.5969496560064176</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.3971445984877748</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.633165759941218</v>
+        <v>0.6331657599412177</v>
       </c>
     </row>
     <row r="56">
@@ -1921,22 +1925,22 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.3251185697983985</v>
+        <v>-0.195621079953614</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.2478900797659909</v>
+        <v>-0.2519171447735573</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.02588815377710497</v>
+        <v>0.04194015593971989</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.2768587882989216</v>
+        <v>0.2611746488795981</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.09091547764016875</v>
+        <v>0.08472187198334312</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.2841042441982655</v>
+        <v>0.2788686282539302</v>
       </c>
     </row>
     <row r="57">
@@ -1947,22 +1951,22 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>4.240762428655777</v>
+        <v>5.478454936634195</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>4.279336668101757</v>
+        <v>4.683098122380041</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.7944811029312184</v>
+        <v>0.7942116795100648</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>1.083634124264173</v>
+        <v>1.052111146913902</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.8315039481067505</v>
+        <v>0.8193042857743783</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>1.042886596341177</v>
+        <v>1.067091684941864</v>
       </c>
     </row>
     <row r="58">
